--- a/Transportation/wwwroot/Uploads/Warehouse.xlsx
+++ b/Transportation/wwwroot/Uploads/Warehouse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4D44F3-8078-4E1E-920C-050F4D754392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3514FBAB-9B3D-48AF-8731-6382CAA30C06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B75A83F4-EDA2-42BF-886F-1B74BC0CF8C9}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -65,29 +54,23 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>ND-21</t>
-  </si>
-  <si>
-    <t>ND-22</t>
-  </si>
-  <si>
-    <t>ND-23</t>
-  </si>
-  <si>
     <t>12 trần phú, hà đông, hà nội</t>
   </si>
   <si>
     <t>112 yên hòa, cầu giấy, Hà nội</t>
   </si>
   <si>
-    <t>Công Viên hòa bình</t>
+    <t>ND-1</t>
+  </si>
+  <si>
+    <t>ND-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,17 +439,17 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,12 +478,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2">
         <v>20.978268</v>
@@ -524,12 +507,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
       <c r="C3">
         <v>21.023225</v>
@@ -553,36 +536,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>10.792045</v>
-      </c>
-      <c r="D4">
-        <v>106.707403</v>
-      </c>
-      <c r="E4">
-        <v>800</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
+    <row r="4" spans="1:9">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
